--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD1094-54D0-42FB-8A12-1104AF3641C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="169">
   <si>
     <t>TestCase-SeekProductAPI</t>
   </si>
@@ -506,7 +507,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -516,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,7 +528,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,7 +550,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -559,7 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,7 +571,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -598,7 +599,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -608,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +620,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,7 +669,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +735,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -749,7 +750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -760,7 +761,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -770,7 +771,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +782,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -807,7 +808,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -817,7 +818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -828,7 +829,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -838,7 +839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +855,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +865,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +876,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -885,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -936,7 +937,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -946,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,7 +963,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -972,7 +973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,7 +989,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1014,7 +1015,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1030,7 +1031,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1046,7 +1047,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1056,7 +1057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,7 +1073,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1082,7 +1083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1102,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,7 +1118,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1134,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1161,7 +1162,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1220,7 +1221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1263,7 +1264,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1282,7 +1283,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1292,7 +1293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1348,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1363,7 +1364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1379,7 +1380,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1674,7 +1675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1690,7 +1691,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1721,7 +1722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1731,7 +1732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1742,7 +1743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1752,7 +1753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1763,7 +1764,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1790,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1831,7 +1832,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1841,7 +1842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1852,7 +1853,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1862,7 +1863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1873,7 +1874,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1895,7 +1896,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1905,7 +1906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1916,7 +1917,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1926,7 +1927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1945,7 +1946,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1955,7 +1956,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1974,7 +1975,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1984,7 +1985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1995,7 +1996,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2005,7 +2006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2021,7 +2022,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2031,7 +2032,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2048,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2057,7 +2058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2069,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2078,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2090,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2105,7 +2106,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,7 +2116,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2126,7 +2127,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2147,7 +2148,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2163,7 +2164,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2173,7 +2174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2184,7 +2185,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2194,7 +2195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2205,7 +2206,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,7 +2216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2226,7 +2227,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2249,7 +2250,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2259,7 +2260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2270,7 +2271,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2280,7 +2281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2291,7 +2292,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2301,7 +2302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2317,7 +2318,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2327,7 +2328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2338,7 +2339,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2348,7 +2349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2359,7 +2360,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2369,7 +2370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2380,7 +2381,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2390,7 +2391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2461,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2476,7 +2477,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2492,7 +2493,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2502,7 +2503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2520,7 +2521,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2530,45 +2531,111 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   "This field must be unique."
     </t>
     </r>
+  </si>
+  <si>
+    <t>TC7_Seek_CeateCompany</t>
+  </si>
+  <si>
+    <r>
+      <t>Logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too large</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create Company with logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too large</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A message :    "file": [
+        "File size is too large, max: 2097152."
+    ],"file": [
+        "File type is not valid, valid types: .png, .jpg, .jpeg."
+    ]
+    </t>
+  </si>
+  <si>
+    <t>banner="C:/image/a.jpg"                         logo="C:/image/a.jpg"                                   ad_sample="C:/image/a.jpj"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2576,7 +2643,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2584,7 +2651,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2670,9 +2737,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Tốt" xfId="1" builtinId="26"/>
-    <cellStyle name="Trung lập" xfId="2" builtinId="28"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2949,33 +3016,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="34.69921875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2983,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2991,7 +3058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2999,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -3059,7 +3126,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3093,31 +3160,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3133,7 +3200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -3201,7 +3268,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -3229,7 +3296,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3324,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15" s="9"/>
     </row>
   </sheetData>
@@ -3266,26 +3333,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="H7:I10"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="49.19921875" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1"/>
+    <col min="9" max="9" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="8:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="8" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="8:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>37</v>
       </c>
@@ -3304,30 +3371,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" customWidth="1"/>
-    <col min="6" max="6" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3335,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3351,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3409,7 +3476,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -3435,7 +3502,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3461,7 +3528,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3554,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -3513,7 +3580,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -3541,7 +3608,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -3569,16 +3636,44 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="36" spans="6:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="36" spans="6:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="F36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3586,40 +3681,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.296875" customWidth="1"/>
-    <col min="6" max="6" width="30.8984375" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3635,7 +3730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3643,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3675,7 +3770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
@@ -3703,7 +3798,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
@@ -3731,7 +3826,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -3759,7 +3854,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -3787,7 +3882,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
@@ -3813,7 +3908,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="10"/>
     </row>
   </sheetData>
@@ -3823,33 +3918,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3960,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
@@ -3931,7 +4026,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -3957,7 +4052,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -3983,7 +4078,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -3994,7 +4089,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -4012,33 +4107,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4046,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4054,7 +4149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4062,7 +4157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4094,7 +4189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>107</v>
       </c>
@@ -4120,7 +4215,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -4146,7 +4241,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
@@ -4178,35 +4273,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.69921875" customWidth="1"/>
-    <col min="11" max="12" width="8.796875" customWidth="1"/>
-    <col min="13" max="13" width="36.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4214,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +4317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4230,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>107</v>
       </c>
@@ -4288,7 +4383,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -4314,7 +4409,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
@@ -4340,7 +4435,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>107</v>
       </c>
@@ -4366,7 +4461,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>107</v>
       </c>
@@ -4394,7 +4489,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>107</v>
       </c>
@@ -4422,7 +4517,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>107</v>
       </c>
@@ -4450,7 +4545,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>107</v>
       </c>
@@ -4478,10 +4573,10 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="10"/>
     </row>
-    <row r="19" spans="13:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="8" t="s">
         <v>137</v>
       </c>
@@ -4493,24 +4588,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="M23:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="13:13" ht="249.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:13" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="13:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M24" s="8" t="s">
         <v>157</v>
       </c>
@@ -4521,31 +4616,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4553,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4561,7 +4656,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4569,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4601,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
@@ -4627,7 +4722,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -4653,7 +4748,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>111</v>
       </c>
@@ -4686,30 +4781,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4717,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4725,7 +4820,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4733,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4765,7 +4860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>118</v>
       </c>
@@ -4791,7 +4886,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>118</v>
       </c>
@@ -4817,7 +4912,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>118</v>
       </c>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD1094-54D0-42FB-8A12-1104AF3641C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A209E-8A2A-4190-A43D-38B23C722CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
     <sheet name="Create Company" sheetId="2" r:id="rId2"/>
-    <sheet name="Check Company Account " sheetId="5" r:id="rId3"/>
-    <sheet name="My Company" sheetId="6" r:id="rId4"/>
-    <sheet name="List DeletedCompany" sheetId="9" r:id="rId5"/>
-    <sheet name="Update Company" sheetId="12" r:id="rId6"/>
-    <sheet name="Create Compan" sheetId="13" r:id="rId7"/>
-    <sheet name="Detail Company" sheetId="10" r:id="rId8"/>
-    <sheet name="Group of CompanyID" sheetId="11" r:id="rId9"/>
-    <sheet name="Add Bank" sheetId="3" r:id="rId10"/>
-    <sheet name="Verification Company" sheetId="4" r:id="rId11"/>
+    <sheet name="Connect Account" sheetId="14" r:id="rId3"/>
+    <sheet name="Create Stripe Account" sheetId="15" r:id="rId4"/>
+    <sheet name="Check Company Account " sheetId="5" r:id="rId5"/>
+    <sheet name="My Company" sheetId="6" r:id="rId6"/>
+    <sheet name="List DeletedCompany" sheetId="9" r:id="rId7"/>
+    <sheet name="Update Company" sheetId="12" r:id="rId8"/>
+    <sheet name="Create Compan" sheetId="13" r:id="rId9"/>
+    <sheet name="Detail Company" sheetId="10" r:id="rId10"/>
+    <sheet name="Group of CompanyID" sheetId="11" r:id="rId11"/>
+    <sheet name="Add Bank" sheetId="3" r:id="rId12"/>
+    <sheet name="Verification Company" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
   <si>
     <t>TestCase-SeekProductAPI</t>
   </si>
@@ -195,130 +197,6 @@
   </si>
   <si>
     <t>{
-    "id": "acct_1HFIzxC4KWdFBXYf",
-    "object": "account",
-    "business_logo": null,
-    "business_logo_large": null,
-    "business_name": "PC",
-    "business_primary_color": null,
-    "business_url": null,
-    "capabilities": {
-        "legacy_payments": "active"
-    },
-    "charges_enabled": true,
-    "country": "AU",
-    "created": 1597235045,
-    "debit_negative_balances": false,
-    "decline_charge_on": {
-        "avs_failure": false,
-        "cvc_failure": false
-    },
-    "default_currency": "aud",
-    "details_submitted": true,
-    "display_name": null,
-    "email": "admin@gmail.com",
-    "external_accounts": {
-        "object": "list",
-        "data": [
-            {
-                "id": "ba_1HGc4zC4KWdFBXYfXGsaKXcP",
-                "object": "bank_account",
-                "account": "acct_1HFIzxC4KWdFBXYf",
-                "account_holder_name": "Dave",
-                "account_holder_type": "company",
-                "bank_name": "STRIPE TEST BANK",
-                "country": "AU",
-                "currency": "aud",
-                "default_for_currency": true,
-                "fingerprint": "yk5SEpjbOehQvnza",
-                "last4": "3456",
-                "metadata": {},
-                "routing_number": "11 0000",
-                "status": "new"
-            }
-        ],
-        "has_more": false,
-        "total_count": 1,
-        "url": "/v1/accounts/acct_1HFIzxC4KWdFBXYf/external_accounts"
-    },
-    "legal_entity": {
-        "additional_owners": [],
-        "address": {
-            "city": "Texas",
-            "country": "AU",
-            "line1": "Texas",
-            "line2": null,
-            "postal_code": "2148",
-            "state": "NSW"
-        },
-        "business_name": "PC",
-        "business_tax_id_provided": true,
-        "directors_provided": false,
-        "dob": {
-            "day": 12,
-            "month": 12,
-            "year": 1984
-        },
-        "executives_provided": false,
-        "first_name": "ABC",
-        "last_name": "David",
-        "owners_provided": false,
-        "personal_address": {
-            "city": null,
-            "country": "AU",
-            "line1": null,
-            "line2": null,
-            "postal_code": null,
-            "state": null
-        },
-        "type": "company",
-        "verification": {
-            "additional_document": null,
-            "additional_document_back": null,
-            "details": null,
-            "details_code": null,
-            "document": "file_1HGc4zC4KWdFBXYf7NO6bBeU",
-            "document_back": null,
-            "status": "pending"
-        }
-    },
-    "mcc": null,
-    "metadata": {},
-    "payout_schedule": {
-        "delay_days": 2,
-        "interval": "daily"
-    },
-    "payout_statement_descriptor": null,
-    "payouts_enabled": true,
-    "product_description": null,
-    "statement_descriptor": "",
-    "statement_descriptor_kana": null,
-    "statement_descriptor_kanji": null,
-    "support_address": null,
-    "support_email": null,
-    "support_phone": null,
-    "support_url": null,
-    "timezone": "Etc/UTC",
-    "tos_acceptance": {
-        "date": 1597546722,
-        "ip": "8.8.8.8",
-        "user_agent": null
-    },
-    "type": "custom",
-    "verification": {
-        "disabled_reason": null,
-        "due_by": null,
-        "errors": [],
-        "fields_needed": [],
-        "pending_verification": []
-    }
-}</t>
-  </si>
-  <si>
-    <t>"error": "You cannot use a Stripe token more than once: btok_1HGc4pDyifgV66lTrbD7m1Ux."</t>
-  </si>
-  <si>
-    <t>{
     "id": 289,
     "user": 2,
     "store_name": "X1 Store",
@@ -345,130 +223,6 @@
     "status": "unverified",
     "is_subscribed": false,
     "social_status": false
-}</t>
-  </si>
-  <si>
-    <t>mỗi btok chỉ sử dụng để xác minh 1 company</t>
-  </si>
-  <si>
-    <t>{
-    "id": "acct_1HGcXsAzh19G0re1",
-    "object": "account",
-    "business_logo": null,
-    "business_logo_large": null,
-    "business_name": "PC",
-    "business_primary_color": null,
-    "business_url": null,
-    "capabilities": {
-        "legacy_payments": "active"
-    },
-    "charges_enabled": true,
-    "country": "AU",
-    "created": 1597548512,
-    "debit_negative_balances": false,
-    "decline_charge_on": {
-        "avs_failure": false,
-        "cvc_failure": false
-    },
-    "default_currency": "aud",
-    "details_submitted": true,
-    "display_name": null,
-    "email": "admin@gmail.com",
-    "external_accounts": {
-        "object": "list",
-        "data": [
-            {
-                "id": "ba_1HGcbtAzh19G0re12JOe9wsB",
-                "object": "bank_account",
-                "account": "acct_1HGcXsAzh19G0re1",
-                "account_holder_name": "Dave",
-                "account_holder_type": "company",
-                "bank_name": "STRIPE TEST BANK",
-                "country": "AU",
-                "currency": "aud",
-                "default_for_currency": true,
-                "fingerprint": "yk5SEpjbOehQvnza",
-                "last4": "3456",
-                "metadata": {},
-                "routing_number": "11 0000",
-                "status": "new"
-            }
-        ],
-        "has_more": false,
-        "total_count": 1,
-        "url": "/v1/accounts/acct_1HGcXsAzh19G0re1/external_accounts"
-    },
-    "legal_entity": {
-        "additional_owners": [],
-        "address": {
-            "city": "Texas",
-            "country": "AU",
-            "line1": "Texas",
-            "line2": null,
-            "postal_code": "2148",
-            "state": "NSW"
-        },
-        "business_name": "PC",
-        "business_tax_id_provided": true,
-        "directors_provided": false,
-        "dob": {
-            "day": 12,
-            "month": 12,
-            "year": 1984
-        },
-        "executives_provided": false,
-        "first_name": "ABC",
-        "last_name": "David",
-        "owners_provided": false,
-        "personal_address": {
-            "city": null,
-            "country": "AU",
-            "line1": null,
-            "line2": null,
-            "postal_code": null,
-            "state": null
-        },
-        "type": "company",
-        "verification": {
-            "additional_document": null,
-            "additional_document_back": null,
-            "details": null,
-            "details_code": null,
-            "document": "file_1HGcbtAzh19G0re1Uw321FFw",
-            "document_back": null,
-            "status": "pending"
-        }
-    },
-    "mcc": null,
-    "metadata": {},
-    "payout_schedule": {
-        "delay_days": 2,
-        "interval": "daily"
-    },
-    "payout_statement_descriptor": null,
-    "payouts_enabled": true,
-    "product_description": null,
-    "statement_descriptor": "",
-    "statement_descriptor_kana": null,
-    "statement_descriptor_kanji": null,
-    "support_address": null,
-    "support_email": null,
-    "support_phone": null,
-    "support_url": null,
-    "timezone": "Etc/UTC",
-    "tos_acceptance": {
-        "date": 1597548762,
-        "ip": "8.8.8.8",
-        "user_agent": null
-    },
-    "type": "custom",
-    "verification": {
-        "disabled_reason": null,
-        "due_by": null,
-        "errors": [],
-        "fields_needed": [],
-        "pending_verification": []
-    }
 }</t>
   </si>
   <si>
@@ -2604,6 +2358,442 @@
   </si>
   <si>
     <t>banner="C:/image/a.jpg"                         logo="C:/image/a.jpg"                                   ad_sample="C:/image/a.jpj"</t>
+  </si>
+  <si>
+    <t>Connect Account</t>
+  </si>
+  <si>
+    <t>TC1_Seek_ConnectAccount</t>
+  </si>
+  <si>
+    <t>TC2_Seek_ConnectAccount</t>
+  </si>
+  <si>
+    <t>TC3_Seek_ConnectAccount</t>
+  </si>
+  <si>
+    <r>
+      <t>Connect Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Connect Account with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+  </si>
+  <si>
+    <t>Connect Account with logged in &amp; token has expired</t>
+  </si>
+  <si>
+    <t>Message: "https://connect.stripe.com/oauth/authorize?scope=read_write&amp;client_id=ca_DSoDpWXBCA8Q4nGiMyrT0ARtOXI0rSK9&amp;response_type=code"</t>
+  </si>
+  <si>
+    <t>Create Stripe Account</t>
+  </si>
+  <si>
+    <t>TC1_Seek_CreateStripeAccount</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Stripe Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create Stripe Account with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Stripe Account with logged in &amp; token has expired</t>
+  </si>
+  <si>
+    <t>Message: "photo_id_front": 
+        "The submitted data was not a file. Check the encoding type on the form."</t>
+  </si>
+  <si>
+    <t>Verification Company</t>
+  </si>
+  <si>
+    <t>TC1_Seek_VerificationCompany</t>
+  </si>
+  <si>
+    <t>TC2_Seek_VerificationCompany</t>
+  </si>
+  <si>
+    <t>TC3_Seek_VerificationCompany</t>
+  </si>
+  <si>
+    <t>TC4_Seek_VerificationCompany</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Stripe Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token &amp; photo_id_front </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is invalid</t>
+    </r>
+  </si>
+  <si>
+    <t>photo_id_front = "xxx"</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Stripe Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token &amp; bank_token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is invalid</t>
+    </r>
+  </si>
+  <si>
+    <t>bank_token ="xxxx"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invalid bank_token</t>
+    </r>
+  </si>
+  <si>
+    <t>Account logged in &amp; invalid photo_id_front</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Message: "Unauthorized"</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Stripe Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid all fields property</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in &amp; valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all fields property  </t>
+    </r>
+  </si>
+  <si>
+    <t>Message:{
+    "id": "acct_1HGlj4IRuvBs8zdB",
+    "object": "account",
+    "business_logo": null,
+    "business_logo_large": null,
+    "business_name": "PC",
+    "business_primary_color": null,
+    "business_url": null,
+    "capabilities": {
+        "legacy_payments": "active"
+    },
+    "charges_enabled": true,
+    "country": "AU",
+    "created": 1597583803,
+    "debit_negative_balances": false,
+    "decline_charge_on": {
+        "avs_failure": false,
+        "cvc_failure": false
+    },
+    "default_currency": "aud",
+    "details_submitted": true,
+    "display_name": null,
+    "email": "phucsteam98@gmail.com",
+    "external_accounts": {
+        "object": "list",
+        "data": [
+            {
+                "id": "ba_1HJEr2IRuvBs8zdBZegYaGPr",
+                "object": "bank_account",
+                "account": "acct_1HGlj4IRuvBs8zdB",
+                "account_holder_name": "Dave",
+                "account_holder_type": "company",
+                "bank_name": "STRIPE TEST BANK",
+                "country": "AU",
+                "currency": "aud",
+                "default_for_currency": true,
+                "fingerprint": "yk5SEpjbOehQvnza",
+                "last4": "3456",
+                "metadata": {},
+                "routing_number": "11 0000",
+                "status": "new"
+            }
+        ],
+        "has_more": false,
+        "total_count": 1,
+        "url": "/v1/accounts/acct_1HGlj4IRuvBs8zdB/external_accounts"
+    },
+    "legal_entity": {
+        "additional_owners": [],
+        "address": {
+            "city": "Texas",
+            "country": "AU",
+            "line1": "Texas",
+            "line2": null,
+            "postal_code": "2148",
+            "state": "NSW"
+        },
+        "business_name": "PC",
+        "business_tax_id_provided": true,
+        "directors_provided": false,
+        "dob": {
+            "day": 12,
+            "month": 12,
+            "year": 1984
+        },
+        "executives_provided": false,
+        "first_name": "ABC",
+        "last_name": "David",
+        "owners_provided": false,
+        "personal_address": {
+            "city": null,
+            "country": "AU",
+            "line1": null,
+            "line2": null,
+            "postal_code": null,
+            "state": null
+        },
+        "type": "company",
+        "verification": {
+            "additional_document": null,
+            "additional_document_back": null,
+            "details": null,
+            "details_code": null,
+            "document": "file_1HJEr2IRuvBs8zdBmjxcgNaW",
+            "document_back": null,
+            "status": "pending"
+        }
+    },
+    "mcc": null,
+    "metadata": {},
+    "payout_schedule": {
+        "delay_days": 2,
+        "interval": "daily"
+    },
+    "payout_statement_descriptor": null,
+    "payouts_enabled": true,
+    "product_description": null,
+    "statement_descriptor": "",
+    "statement_descriptor_kana": null,
+    "statement_descriptor_kanji": null,
+    "support_address": null,
+    "support_email": null,
+    "support_phone": null,
+    "support_url": null,
+    "timezone": "Etc/UTC",
+    "tos_acceptance": {
+        "date": 1598172429,
+        "ip": "8.8.8.8",
+        "user_agent": null
+    },
+    "type": "custom",
+    "verification": {
+        "disabled_reason": null,
+        "due_by": null,
+        "errors": [],
+        "fields_needed": [],
+        "pending_verification": []
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Stripe Account with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token &amp; bank_token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has been used already</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bank_token has been used already</t>
+    </r>
+  </si>
+  <si>
+    <t>bank_token ="btok_1HJEpnDyifgV66lTZZGNV9CV"</t>
+  </si>
+  <si>
+    <t>Message: "error": "You cannot use a Stripe token more than once: btok_1HJEpnDyifgV66lTZZGNV9CV."</t>
+  </si>
+  <si>
+    <t>Message:"error": "You cannot change `legal_entity[verification][document]` via API if an account is verified. Please contact us via https://support.stripe.com/contact if you need to change the legal entity information associated with this account.""</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create Stripe Account with logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> already verified</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>account already verified</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3020,7 +3210,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3160,6 +3350,334 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3197,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3242,22 +3760,22 @@
     </row>
     <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -3270,22 +3788,22 @@
     </row>
     <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -3298,22 +3816,22 @@
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -3332,41 +3850,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="H7:I10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" customWidth="1"/>
     <col min="9" max="9" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="8:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="8:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3374,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3458,11 +4216,11 @@
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>32</v>
@@ -3481,17 +4239,17 @@
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -3507,17 +4265,17 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -3533,17 +4291,17 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>16</v>
@@ -3559,17 +4317,17 @@
         <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>16</v>
@@ -3585,19 +4343,19 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>16</v>
@@ -3613,19 +4371,19 @@
         <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>16</v>
@@ -3641,19 +4399,19 @@
         <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>16</v>
@@ -3675,7 +4433,7 @@
     </row>
     <row r="36" spans="6:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="F36" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>28</v>
@@ -3691,6 +4449,335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D227C71F-EA37-41F5-8D2A-33B84880E086}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="A1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1D4AB-B47A-4EDF-B980-4B2CEA220DA3}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="A1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -3727,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3772,22 +4859,22 @@
     </row>
     <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -3800,22 +4887,22 @@
     </row>
     <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -3828,22 +4915,22 @@
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -3856,22 +4943,22 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>16</v>
@@ -3884,20 +4971,20 @@
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>16</v>
@@ -3917,12 +5004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3957,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4002,20 +5089,20 @@
     </row>
     <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -4028,20 +5115,20 @@
     </row>
     <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -4054,20 +5141,20 @@
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -4106,12 +5193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4191,20 +5278,20 @@
     </row>
     <row r="7" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -4217,20 +5304,20 @@
     </row>
     <row r="8" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -4243,20 +5330,20 @@
     </row>
     <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -4272,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -4314,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4359,20 +5446,20 @@
     </row>
     <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -4385,20 +5472,20 @@
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
@@ -4411,20 +5498,20 @@
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>16</v>
@@ -4437,20 +5524,20 @@
     </row>
     <row r="10" spans="1:10" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>16</v>
@@ -4463,22 +5550,22 @@
     </row>
     <row r="11" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>16</v>
@@ -4491,22 +5578,22 @@
     </row>
     <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>16</v>
@@ -4519,22 +5606,22 @@
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>16</v>
@@ -4547,22 +5634,22 @@
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>16</v>
@@ -4578,7 +5665,7 @@
     </row>
     <row r="19" spans="13:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="M23:M24"/>
   <sheetViews>
@@ -4602,341 +5689,13 @@
   <sheetData>
     <row r="23" spans="13:13" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="13:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A209E-8A2A-4190-A43D-38B23C722CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506AF28-F170-4DED-A457-305C14E6E899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
@@ -3854,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4366,7 +4366,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506AF28-F170-4DED-A457-305C14E6E899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DDA297-660D-4691-A781-DC8982DF4748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3681,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4208,7 +4208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="283.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -4618,7 +4618,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DDA297-660D-4691-A781-DC8982DF4748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E983DF3-8B05-4588-A652-EB29BF0D196F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Detail Company" sheetId="10" r:id="rId10"/>
     <sheet name="Group of CompanyID" sheetId="11" r:id="rId11"/>
     <sheet name="Add Bank" sheetId="3" r:id="rId12"/>
-    <sheet name="Verification Company" sheetId="4" r:id="rId13"/>
+    <sheet name="Add Social Link" sheetId="16" r:id="rId13"/>
+    <sheet name="Verification Company" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="217">
   <si>
     <t>TestCase-SeekProductAPI</t>
   </si>
@@ -2795,12 +2796,208 @@
       <t>account already verified</t>
     </r>
   </si>
+  <si>
+    <t>Add Social Link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add Social Link with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Social Link with logged in &amp; token has expired</t>
+  </si>
+  <si>
+    <t>TC1_Seek_AddSocialLink</t>
+  </si>
+  <si>
+    <t>TC2_Seek_AddSocialLink</t>
+  </si>
+  <si>
+    <t>TC3_Seek_AddSocialLink</t>
+  </si>
+  <si>
+    <t>TC4_Seek_AddSocialLink</t>
+  </si>
+  <si>
+    <r>
+      <t>Add Social Link with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id_company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the up silver up</t>
+    </r>
+  </si>
+  <si>
+    <t>Message :{
+    "facebook": "facebook.com/itech/",
+    "instagram": "instagram.com/itech/",
+    "twitter": "twitter.com/itech/"
+}</t>
+  </si>
+  <si>
+    <t>A message   "You need Silver subscription to add socail links"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valid token  &amp; valid id_company &amp; company from the up silver up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add Social Link with logged in &amp; token valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; company unregistered subscription</t>
+    </r>
+  </si>
+  <si>
+    <t>data : {
+ "facebook":"facebook.com/itech/",
+ "instagram":"instagram.com/itech/",
+ "twitter":"twitter.com/itech/"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add Social Link with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>company_id</t>
+    </r>
+  </si>
+  <si>
+    <t>A message   "company": "not found"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account logged in   &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>company_id</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3213,7 +3410,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -3227,12 +3424,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3240,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3248,7 +3445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3288,7 +3485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="107.4" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -3316,7 +3513,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="81" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3357,7 +3554,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
@@ -3369,12 +3566,12 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3382,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3587,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="36">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3430,7 +3627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>107</v>
       </c>
@@ -3456,7 +3653,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="57.6" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3679,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72">
       <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
@@ -3519,10 +3716,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -3533,12 +3730,12 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3562,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="240" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
@@ -3620,7 +3817,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="96.6" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>114</v>
       </c>
@@ -3646,7 +3843,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -3681,11 +3878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
@@ -3697,12 +3894,12 @@
     <col min="10" max="10" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3718,7 +3915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3726,7 +3923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="409.6">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3786,7 +3983,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="78" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3814,7 +4011,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +4039,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="J15" s="9"/>
     </row>
   </sheetData>
@@ -3851,14 +4048,233 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0C768-918A-4BA7-B4DA-DF4A9A451050}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="116.4" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="43.2">
+      <c r="A8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="57.6">
+      <c r="A9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="100.8">
+      <c r="A10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="57.6">
+      <c r="A11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
@@ -3870,12 +4286,12 @@
     <col min="9" max="9" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3883,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3891,7 +4307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3899,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="36">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3931,7 +4347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="72" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3957,7 +4373,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="72">
       <c r="A8" s="6" t="s">
         <v>179</v>
       </c>
@@ -3985,7 +4401,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>179</v>
       </c>
@@ -4013,7 +4429,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="69" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>179</v>
       </c>
@@ -4041,7 +4457,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="129.6">
       <c r="A11" s="6" t="s">
         <v>179</v>
       </c>
@@ -4067,7 +4483,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.2">
       <c r="A12" s="6" t="s">
         <v>179</v>
       </c>
@@ -4093,7 +4509,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="43.2">
       <c r="A13" s="6" t="s">
         <v>179</v>
       </c>
@@ -4119,7 +4535,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="F14" s="8"/>
     </row>
   </sheetData>
@@ -4132,11 +4548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -4147,12 +4563,12 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4160,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4168,7 +4584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4176,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4208,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="283.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="283.8" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -4234,7 +4650,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -4260,7 +4676,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57.6">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4702,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -4312,7 +4728,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -4338,7 +4754,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="72">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -4366,7 +4782,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="70.2" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -4394,7 +4810,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="115.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -4422,16 +4838,16 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="G16" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6">
       <c r="F20" s="8"/>
     </row>
-    <row r="36" spans="6:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:7" ht="409.6">
       <c r="F36" s="8" t="s">
         <v>34</v>
       </c>
@@ -4439,7 +4855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:7">
       <c r="F41" s="8"/>
     </row>
   </sheetData>
@@ -4456,7 +4872,7 @@
       <selection activeCell="J9" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
@@ -4469,12 +4885,12 @@
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4482,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4490,7 +4906,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4498,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="36">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4530,7 +4946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="104.4" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>165</v>
       </c>
@@ -4556,7 +4972,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2">
       <c r="A8" s="6" t="s">
         <v>165</v>
       </c>
@@ -4582,7 +4998,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57.6">
       <c r="A9" s="6" t="s">
         <v>165</v>
       </c>
@@ -4618,10 +5034,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J9" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -4633,12 +5049,12 @@
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +5062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4654,7 +5070,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +5078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="36">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4694,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="131.4" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
@@ -4720,7 +5136,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="57.6">
       <c r="A8" s="6" t="s">
         <v>173</v>
       </c>
@@ -4746,7 +5162,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57.6">
       <c r="A9" s="6" t="s">
         <v>173</v>
       </c>
@@ -4785,7 +5201,7 @@
       <selection activeCell="G11" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
@@ -4796,12 +5212,12 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4809,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4817,7 +5233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4857,7 +5273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -4885,7 +5301,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="87" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -4913,7 +5329,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="48" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -4941,7 +5357,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +5385,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -4995,7 +5411,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="F12" s="10"/>
     </row>
   </sheetData>
@@ -5012,7 +5428,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
@@ -5026,12 +5442,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5039,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5047,7 +5463,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5055,7 +5471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="129.6" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -5113,7 +5529,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>93</v>
       </c>
@@ -5139,7 +5555,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72">
       <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
@@ -5165,7 +5581,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="64.8" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -5176,7 +5592,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="46.8" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -5201,7 +5617,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -5215,12 +5631,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5228,7 +5644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5236,7 +5652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5276,7 +5692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="96.6" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -5302,7 +5718,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="94.8" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -5328,7 +5744,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="89.4" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
@@ -5367,7 +5783,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
@@ -5383,12 +5799,12 @@
     <col min="13" max="13" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5404,7 +5820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5412,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5444,7 +5860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -5470,7 +5886,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -5496,7 +5912,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2">
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
@@ -5522,7 +5938,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="205.8" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>103</v>
       </c>
@@ -5548,7 +5964,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="109.2" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>103</v>
       </c>
@@ -5576,7 +5992,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="83.4" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>103</v>
       </c>
@@ -5604,7 +6020,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="57.6">
       <c r="A13" s="6" t="s">
         <v>103</v>
       </c>
@@ -5632,7 +6048,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="57.6">
       <c r="A14" s="6" t="s">
         <v>103</v>
       </c>
@@ -5660,10 +6076,10 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="F16" s="10"/>
     </row>
-    <row r="19" spans="13:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:13" ht="48.6" customHeight="1">
       <c r="M19" s="8" t="s">
         <v>133</v>
       </c>
@@ -5678,21 +6094,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="M23:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="13:13" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:13" ht="249.6" customHeight="1">
       <c r="M23" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="13:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:13" ht="186.6" customHeight="1">
       <c r="M24" s="8" t="s">
         <v>153</v>
       </c>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E983DF3-8B05-4588-A652-EB29BF0D196F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4DF09-9B74-4A58-85E4-A89C37E126AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Create Compan" sheetId="13" r:id="rId9"/>
     <sheet name="Detail Company" sheetId="10" r:id="rId10"/>
     <sheet name="Group of CompanyID" sheetId="11" r:id="rId11"/>
-    <sheet name="Add Bank" sheetId="3" r:id="rId12"/>
-    <sheet name="Add Social Link" sheetId="16" r:id="rId13"/>
-    <sheet name="Verification Company" sheetId="4" r:id="rId14"/>
+    <sheet name="Account Info" sheetId="17" r:id="rId12"/>
+    <sheet name="Add Bank" sheetId="3" r:id="rId13"/>
+    <sheet name="Add Social Link" sheetId="16" r:id="rId14"/>
+    <sheet name="Verification Company" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="229">
   <si>
     <t>TestCase-SeekProductAPI</t>
   </si>
@@ -2992,12 +2993,112 @@
       <t>company_id</t>
     </r>
   </si>
+  <si>
+    <t>Account Info</t>
+  </si>
+  <si>
+    <t>TC1_Seek_AccountInfo</t>
+  </si>
+  <si>
+    <t>TC2_Seek_AccountInfo</t>
+  </si>
+  <si>
+    <t>TC3_Seek_AccountInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>Account Info with logged in &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account Info with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+  </si>
+  <si>
+    <t>Account Info with logged in &amp; token has expired</t>
+  </si>
+  <si>
+    <t>A message : {
+    "city": null,
+    "line1": null,
+    "postal_code": null,
+    "state": null,
+    "bussiness_name": null,
+    "dob_day": null,
+    "dob_month": null,
+    "dob_year": null,
+    "first_name": null,
+    "last_name": null,
+    "photo_id_front": null,
+    "bank_token": []
+}</t>
+  </si>
+  <si>
+    <t>TC4_Seek_AccountInfo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Account Info with logged in &amp; invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">company_id  </t>
+    </r>
+  </si>
+  <si>
+    <t>data : company_id : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message  
+    "message": "Unauthorized"
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3410,7 +3511,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -3424,12 +3525,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3437,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3445,7 +3546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3453,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="107.4" customHeight="1">
+    <row r="7" spans="1:10" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -3513,7 +3614,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="81" customHeight="1">
+    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3551,10 +3652,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J9" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
@@ -3566,12 +3667,12 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3587,7 +3688,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36">
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3627,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1">
+    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>107</v>
       </c>
@@ -3653,7 +3754,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" customHeight="1">
+    <row r="8" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
@@ -3679,7 +3780,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
@@ -3716,10 +3817,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -3730,12 +3831,12 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3743,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3751,7 +3852,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3759,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="240" customHeight="1">
+    <row r="7" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
@@ -3817,7 +3918,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="96.6" customHeight="1">
+    <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>114</v>
       </c>
@@ -3843,7 +3944,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -3875,31 +3976,222 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE9428A-9C3C-46ED-B14D-7065BBC2E307}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.21875" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3907,7 +4199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3915,7 +4207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3955,7 +4247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.6">
+    <row r="7" spans="1:10" ht="296.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3983,7 +4275,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="78" customHeight="1">
+    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -4011,7 +4303,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -4039,7 +4331,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15" s="9"/>
     </row>
   </sheetData>
@@ -4047,15 +4339,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0C768-918A-4BA7-B4DA-DF4A9A451050}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
@@ -4066,12 +4358,12 @@
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4079,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4095,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4127,7 +4419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="116.4" customHeight="1">
+    <row r="7" spans="1:16" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>201</v>
       </c>
@@ -4155,7 +4447,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="43.2">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>201</v>
       </c>
@@ -4181,7 +4473,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="57.6">
+    <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>201</v>
       </c>
@@ -4208,7 +4500,7 @@
       <c r="J9" s="6"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="100.8">
+    <row r="10" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>201</v>
       </c>
@@ -4234,7 +4526,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="57.6">
+    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>201</v>
       </c>
@@ -4266,7 +4558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4274,7 +4566,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
@@ -4286,12 +4578,12 @@
     <col min="9" max="9" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4299,7 +4591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4307,7 +4599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4315,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4347,7 +4639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1">
+    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -4373,7 +4665,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="72">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>179</v>
       </c>
@@ -4401,7 +4693,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57" customHeight="1">
+    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>179</v>
       </c>
@@ -4429,7 +4721,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="69" customHeight="1">
+    <row r="10" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>179</v>
       </c>
@@ -4457,7 +4749,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="129.6">
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>179</v>
       </c>
@@ -4483,7 +4775,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>179</v>
       </c>
@@ -4509,7 +4801,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>179</v>
       </c>
@@ -4535,7 +4827,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
     </row>
   </sheetData>
@@ -4552,7 +4844,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -4563,12 +4855,12 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4584,7 +4876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4592,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1">
+    <row r="6" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="283.8" customHeight="1">
+    <row r="7" spans="1:10" ht="283.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -4650,7 +4942,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -4676,7 +4968,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -4702,7 +4994,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -4728,7 +5020,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -4754,7 +5046,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="72">
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -4782,7 +5074,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="70.2" customHeight="1">
+    <row r="13" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -4810,7 +5102,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="115.2">
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -4838,16 +5130,16 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
     </row>
-    <row r="36" spans="6:7" ht="409.6">
+    <row r="36" spans="6:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="F36" s="8" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +5147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41" s="8"/>
     </row>
   </sheetData>
@@ -4869,10 +5161,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
@@ -4885,12 +5177,12 @@
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4906,7 +5198,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4914,7 +5206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4946,7 +5238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="104.4" customHeight="1">
+    <row r="7" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>165</v>
       </c>
@@ -4972,7 +5264,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>165</v>
       </c>
@@ -4998,7 +5290,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>165</v>
       </c>
@@ -5034,10 +5326,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -5049,12 +5341,12 @@
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5062,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5070,7 +5362,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5078,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5110,7 +5402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="131.4" customHeight="1">
+    <row r="7" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
@@ -5136,7 +5428,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>173</v>
       </c>
@@ -5162,7 +5454,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>173</v>
       </c>
@@ -5201,7 +5493,7 @@
       <selection activeCell="G11" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
@@ -5212,12 +5504,12 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5225,7 +5517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5233,7 +5525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5241,7 +5533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5273,7 +5565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69" customHeight="1">
+    <row r="7" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -5301,7 +5593,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="87" customHeight="1">
+    <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -5329,7 +5621,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -5357,7 +5649,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -5385,7 +5677,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -5411,7 +5703,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="10"/>
     </row>
   </sheetData>
@@ -5428,7 +5720,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
@@ -5442,12 +5734,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5455,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5463,7 +5755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5471,7 +5763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5503,7 +5795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="129.6" customHeight="1">
+    <row r="7" spans="1:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -5529,7 +5821,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="48.6" customHeight="1">
+    <row r="8" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>93</v>
       </c>
@@ -5555,7 +5847,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="72">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
@@ -5581,7 +5873,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="64.8" customHeight="1">
+    <row r="10" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -5592,7 +5884,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8" customHeight="1">
+    <row r="11" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -5617,7 +5909,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -5631,12 +5923,12 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5644,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5652,7 +5944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5660,7 +5952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5692,7 +5984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="96.6" customHeight="1">
+    <row r="7" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -5718,7 +6010,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="94.8" customHeight="1">
+    <row r="8" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -5744,7 +6036,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="89.4" customHeight="1">
+    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
@@ -5783,7 +6075,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
@@ -5799,12 +6091,12 @@
     <col min="13" max="13" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5820,7 +6112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5828,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5860,7 +6152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1">
+    <row r="7" spans="1:10" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -5886,7 +6178,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -5912,7 +6204,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
@@ -5938,7 +6230,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="205.8" customHeight="1">
+    <row r="10" spans="1:10" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>103</v>
       </c>
@@ -5964,7 +6256,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="109.2" customHeight="1">
+    <row r="11" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>103</v>
       </c>
@@ -5992,7 +6284,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="83.4" customHeight="1">
+    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>103</v>
       </c>
@@ -6020,7 +6312,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="57.6">
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>103</v>
       </c>
@@ -6048,7 +6340,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>103</v>
       </c>
@@ -6076,10 +6368,10 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="10"/>
     </row>
-    <row r="19" spans="13:13" ht="48.6" customHeight="1">
+    <row r="19" spans="13:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="8" t="s">
         <v>133</v>
       </c>
@@ -6098,17 +6390,17 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="13:13" ht="249.6" customHeight="1">
+    <row r="23" spans="13:13" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="13:13" ht="186.6" customHeight="1">
+    <row r="24" spans="13:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M24" s="8" t="s">
         <v>153</v>
       </c>

--- a/docs/HuuPhuc/Manager Company 1.xlsx
+++ b/docs/HuuPhuc/Manager Company 1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4DF09-9B74-4A58-85E4-A89C37E126AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744CBDF-289C-4CC6-8B2E-CFDEADDF473C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All My Company" sheetId="1" r:id="rId1"/>
@@ -3507,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3652,7 +3652,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3979,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE9428A-9C3C-46ED-B14D-7065BBC2E307}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>217</v>
       </c>
@@ -4562,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4639,7 +4639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -5490,7 +5490,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="F10:G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5716,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
